--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd28-Cd80.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd28-Cd80.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="H2">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="I2">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="J2">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6791226666666667</v>
+        <v>0.9792566666666667</v>
       </c>
       <c r="N2">
-        <v>2.037368</v>
+        <v>2.93777</v>
       </c>
       <c r="O2">
-        <v>0.02029974872115253</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="P2">
-        <v>0.02029974872115254</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="Q2">
-        <v>1.629758575466667</v>
+        <v>6.770373643757777</v>
       </c>
       <c r="R2">
-        <v>14.6678271792</v>
+        <v>60.93336279382</v>
       </c>
       <c r="S2">
-        <v>0.007498207920081728</v>
+        <v>0.0126806912522232</v>
       </c>
       <c r="T2">
-        <v>0.007498207920081728</v>
+        <v>0.0126806912522232</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="H3">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="I3">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="J3">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.51249</v>
       </c>
       <c r="O3">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894493</v>
       </c>
       <c r="P3">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894492</v>
       </c>
       <c r="Q3">
-        <v>5.209557834000001</v>
+        <v>15.00865985126</v>
       </c>
       <c r="R3">
-        <v>46.886020506</v>
+        <v>135.07793866134</v>
       </c>
       <c r="S3">
-        <v>0.02396818056308584</v>
+        <v>0.02811073534456104</v>
       </c>
       <c r="T3">
-        <v>0.02396818056308583</v>
+        <v>0.02811073534456104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="H4">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="I4">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="J4">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.483351</v>
+        <v>18.980972</v>
       </c>
       <c r="N4">
-        <v>34.450053</v>
+        <v>56.942916</v>
       </c>
       <c r="O4">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="P4">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="Q4">
-        <v>27.55774572980001</v>
+        <v>131.2304290959173</v>
       </c>
       <c r="R4">
-        <v>248.0197115682001</v>
+        <v>1181.073861863256</v>
       </c>
       <c r="S4">
-        <v>0.1267879245437424</v>
+        <v>0.2457903569024398</v>
       </c>
       <c r="T4">
-        <v>0.1267879245437424</v>
+        <v>0.2457903569024398</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="H5">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="I5">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="J5">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8512786666666669</v>
+        <v>0.9440396666666667</v>
       </c>
       <c r="N5">
-        <v>2.553836</v>
+        <v>2.832119</v>
       </c>
       <c r="O5">
-        <v>0.02544568731570993</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="P5">
-        <v>0.02544568731570994</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="Q5">
-        <v>2.042898544266667</v>
+        <v>6.526890748283778</v>
       </c>
       <c r="R5">
-        <v>18.38608689840001</v>
+        <v>58.742016734554</v>
       </c>
       <c r="S5">
-        <v>0.009398986006352238</v>
+        <v>0.01222465564988244</v>
       </c>
       <c r="T5">
-        <v>0.009398986006352238</v>
+        <v>0.01222465564988244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3998</v>
+        <v>6.913788666666666</v>
       </c>
       <c r="H6">
-        <v>7.199400000000001</v>
+        <v>20.741366</v>
       </c>
       <c r="I6">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="J6">
-        <v>0.3693744204955859</v>
+        <v>0.4464851245108818</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.27015033333333</v>
+        <v>11.40437333333333</v>
       </c>
       <c r="N6">
-        <v>54.810451</v>
+        <v>34.21312</v>
       </c>
       <c r="O6">
-        <v>0.5461155680235694</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="P6">
-        <v>0.5461155680235695</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="Q6">
-        <v>43.84470676993334</v>
+        <v>78.84742710243556</v>
       </c>
       <c r="R6">
-        <v>394.6023609294</v>
+        <v>709.62684392192</v>
       </c>
       <c r="S6">
-        <v>0.2017211214623237</v>
+        <v>0.1476786853617753</v>
       </c>
       <c r="T6">
-        <v>0.2017211214623237</v>
+        <v>0.1476786853617753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="I7">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="J7">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.6791226666666667</v>
+        <v>0.9792566666666667</v>
       </c>
       <c r="N7">
-        <v>2.037368</v>
+        <v>2.93777</v>
       </c>
       <c r="O7">
-        <v>0.02029974872115253</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="P7">
-        <v>0.02029974872115254</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="Q7">
-        <v>0.02138127166311111</v>
+        <v>0.03083059047444444</v>
       </c>
       <c r="R7">
-        <v>0.192431444968</v>
+        <v>0.27747531427</v>
       </c>
       <c r="S7">
-        <v>9.837114707609513E-05</v>
+        <v>5.774470058836693E-05</v>
       </c>
       <c r="T7">
-        <v>9.837114707609513E-05</v>
+        <v>5.774470058836692E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="I8">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="J8">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>6.51249</v>
       </c>
       <c r="O8">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894493</v>
       </c>
       <c r="P8">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894492</v>
       </c>
       <c r="Q8">
         <v>0.06834568811</v>
@@ -948,10 +948,10 @@
         <v>0.6151111929899999</v>
       </c>
       <c r="S8">
-        <v>0.0003144454568941884</v>
+        <v>0.0001280092672791722</v>
       </c>
       <c r="T8">
-        <v>0.0003144454568941883</v>
+        <v>0.0001280092672791722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="I9">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="J9">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.483351</v>
+        <v>18.980972</v>
       </c>
       <c r="N9">
-        <v>34.450053</v>
+        <v>56.942916</v>
       </c>
       <c r="O9">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="P9">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="Q9">
-        <v>0.3615379951003334</v>
+        <v>0.5975905954573333</v>
       </c>
       <c r="R9">
-        <v>3.253841955903</v>
+        <v>5.378315359115999</v>
       </c>
       <c r="S9">
-        <v>0.001663367261310805</v>
+        <v>0.001119267891989001</v>
       </c>
       <c r="T9">
-        <v>0.001663367261310805</v>
+        <v>0.001119267891989001</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="I10">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="J10">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8512786666666669</v>
+        <v>0.9440396666666667</v>
       </c>
       <c r="N10">
-        <v>2.553836</v>
+        <v>2.832119</v>
       </c>
       <c r="O10">
-        <v>0.02544568731570993</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="P10">
-        <v>0.02544568731570994</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="Q10">
-        <v>0.02680137378177778</v>
+        <v>0.02972183018544445</v>
       </c>
       <c r="R10">
-        <v>0.241212364036</v>
+        <v>0.267496471669</v>
       </c>
       <c r="S10">
-        <v>0.0001233080016787476</v>
+        <v>5.566802836356324E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001233080016787475</v>
+        <v>5.566802836356323E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.09445099999999999</v>
       </c>
       <c r="I11">
-        <v>0.004845929298306607</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="J11">
-        <v>0.004845929298306606</v>
+        <v>0.002033181734278123</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.27015033333333</v>
+        <v>11.40437333333333</v>
       </c>
       <c r="N11">
-        <v>54.810451</v>
+        <v>34.21312</v>
       </c>
       <c r="O11">
-        <v>0.5461155680235694</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="P11">
-        <v>0.5461155680235695</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="Q11">
-        <v>0.5752113230445556</v>
+        <v>0.3590514885688889</v>
       </c>
       <c r="R11">
-        <v>5.176901907401</v>
+        <v>3.23146339712</v>
       </c>
       <c r="S11">
-        <v>0.00264643743134677</v>
+        <v>0.0006724918460580198</v>
       </c>
       <c r="T11">
-        <v>0.00264643743134677</v>
+        <v>0.0006724918460580196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="H12">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="I12">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="J12">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.6791226666666667</v>
+        <v>0.9792566666666667</v>
       </c>
       <c r="N12">
-        <v>2.037368</v>
+        <v>2.93777</v>
       </c>
       <c r="O12">
-        <v>0.02029974872115253</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="P12">
-        <v>0.02029974872115254</v>
+        <v>0.02840115057834171</v>
       </c>
       <c r="Q12">
-        <v>2.761073032365333</v>
+        <v>8.362511804851112</v>
       </c>
       <c r="R12">
-        <v>24.849657291288</v>
+        <v>75.26260624366</v>
       </c>
       <c r="S12">
-        <v>0.01270316965399471</v>
+        <v>0.01566271462553014</v>
       </c>
       <c r="T12">
-        <v>0.01270316965399471</v>
+        <v>0.01566271462553014</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="H13">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="I13">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="J13">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.51249</v>
       </c>
       <c r="O13">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894493</v>
       </c>
       <c r="P13">
-        <v>0.06488857709997344</v>
+        <v>0.06296007145894492</v>
       </c>
       <c r="Q13">
-        <v>8.825828477009999</v>
+        <v>18.53813419838</v>
       </c>
       <c r="R13">
-        <v>79.43245629308998</v>
+        <v>166.84320778542</v>
       </c>
       <c r="S13">
-        <v>0.04060595107999342</v>
+        <v>0.03472132684710471</v>
       </c>
       <c r="T13">
-        <v>0.04060595107999342</v>
+        <v>0.0347213268471047</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="H14">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="I14">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="J14">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.483351</v>
+        <v>18.980972</v>
       </c>
       <c r="N14">
-        <v>34.450053</v>
+        <v>56.942916</v>
       </c>
       <c r="O14">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="P14">
-        <v>0.3432504188395946</v>
+        <v>0.550500662640664</v>
       </c>
       <c r="Q14">
-        <v>46.687251543097</v>
+        <v>162.0909081557253</v>
       </c>
       <c r="R14">
-        <v>420.185263887873</v>
+        <v>1458.818173401528</v>
       </c>
       <c r="S14">
-        <v>0.2147991270345414</v>
+        <v>0.3035910378462351</v>
       </c>
       <c r="T14">
-        <v>0.2147991270345414</v>
+        <v>0.3035910378462351</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="H15">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="I15">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="J15">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8512786666666669</v>
+        <v>0.9440396666666667</v>
       </c>
       <c r="N15">
-        <v>2.553836</v>
+        <v>2.832119</v>
       </c>
       <c r="O15">
-        <v>0.02544568731570993</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="P15">
-        <v>0.02544568731570994</v>
+        <v>0.02737976021771022</v>
       </c>
       <c r="Q15">
-        <v>3.460998557297334</v>
+        <v>8.061770856889112</v>
       </c>
       <c r="R15">
-        <v>31.148987015676</v>
+        <v>72.55593771200201</v>
       </c>
       <c r="S15">
-        <v>0.01592339330767895</v>
+        <v>0.01509943653946422</v>
       </c>
       <c r="T15">
-        <v>0.01592339330767895</v>
+        <v>0.01509943653946422</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.065646999999999</v>
+        <v>8.539652666666667</v>
       </c>
       <c r="H16">
-        <v>12.196941</v>
+        <v>25.618958</v>
       </c>
       <c r="I16">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="J16">
-        <v>0.6257796502061076</v>
+        <v>0.55148169375484</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.27015033333333</v>
+        <v>11.40437333333333</v>
       </c>
       <c r="N16">
-        <v>54.810451</v>
+        <v>34.21312</v>
       </c>
       <c r="O16">
-        <v>0.5461155680235694</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="P16">
-        <v>0.5461155680235695</v>
+        <v>0.3307583551043392</v>
       </c>
       <c r="Q16">
-        <v>74.27998189226565</v>
+        <v>97.38938714766223</v>
       </c>
       <c r="R16">
-        <v>668.5198370303909</v>
+        <v>876.5044843289601</v>
       </c>
       <c r="S16">
-        <v>0.3417480091298991</v>
+        <v>0.1824071778965058</v>
       </c>
       <c r="T16">
-        <v>0.3417480091298991</v>
+        <v>0.1824071778965058</v>
       </c>
     </row>
   </sheetData>
